--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/38.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/38.xlsx
@@ -479,13 +479,13 @@
         <v>-14.79374935998288</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.15551837703889</v>
+        <v>-14.16249657445353</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.522778366309214</v>
+        <v>-0.5169522915446458</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.45095964185261</v>
+        <v>-10.46025517687024</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.44938039399149</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.36300519247457</v>
+        <v>-14.36930259014144</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5155383228377395</v>
+        <v>-0.5089136175998261</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.20568844041571</v>
+        <v>-10.21435554489694</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.04715129130677</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.67830712181186</v>
+        <v>-14.6851936731066</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4366571982163399</v>
+        <v>-0.4305561850920955</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.781196705378429</v>
+        <v>-9.790636255727314</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.61452990711803</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.13546415243925</v>
+        <v>-15.14303150348177</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3786452043246517</v>
+        <v>-0.37165391460717</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.563236047669374</v>
+        <v>-9.573094551709193</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.14092256790104</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.57926703416808</v>
+        <v>-15.58735807732426</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3614681029963071</v>
+        <v>-0.3548041208498685</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.372494287568266</v>
+        <v>-9.382758652996179</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.63392104488722</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.05167659760608</v>
+        <v>-16.06102450183507</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3837250178272414</v>
+        <v>-0.3750317287403353</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.231529462871402</v>
+        <v>-9.241702182179424</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.09709459424622</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.55385805770617</v>
+        <v>-16.56429262307102</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1641409145658118</v>
+        <v>-0.1563640866778265</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.0293057531781</v>
+        <v>-9.039439195577597</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.51960742563952</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.17328108975391</v>
+        <v>-17.18510343921999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03425984269770504</v>
+        <v>0.04307096251018668</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.052466036905114</v>
+        <v>-9.062769679241553</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.89333615433266</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.59362256479037</v>
+        <v>-17.60624354472979</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1610849803255055</v>
+        <v>0.1688094390021238</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.739232691416818</v>
+        <v>-8.749117380062321</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.22537754189176</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.1212030924034</v>
+        <v>-18.13480599505596</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2869674721487016</v>
+        <v>0.2946788385224783</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.6615691509597</v>
+        <v>-8.671846608690455</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.511329237109129</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.64204108405295</v>
+        <v>-18.65598438657939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3668959809974393</v>
+        <v>0.3756154546900288</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.159492429282347</v>
+        <v>-8.16991390234436</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.751743904202502</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.40194452559241</v>
+        <v>-19.41656862786662</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5018645309927933</v>
+        <v>0.5112255275246275</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.566384925946472</v>
+        <v>-7.578102536989817</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.97170726341732</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.22687743534673</v>
+        <v>-20.24159318374083</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7396731198099056</v>
+        <v>0.7501076851747612</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.985950771761388</v>
+        <v>-6.999265643751424</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.182603845089121</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.02176351007929</v>
+        <v>-21.03684584295296</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8195099825387512</v>
+        <v>0.8303635015945421</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.43642754458562</v>
+        <v>-6.451143292979721</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.391597272009602</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.91096653448364</v>
+        <v>-21.92564300596921</v>
       </c>
       <c r="F16" t="n">
-        <v>1.064165845742086</v>
+        <v>1.075464503094496</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.940281636095569</v>
+        <v>-5.953936907959489</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.620008567570673</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.55120632804973</v>
+        <v>-22.56552930735857</v>
       </c>
       <c r="F17" t="n">
-        <v>1.241055949436647</v>
+        <v>1.252511714423157</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.817672219982804</v>
+        <v>-5.831785722446185</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.875827834865485</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.33121954675408</v>
+        <v>-23.34596147975386</v>
       </c>
       <c r="F18" t="n">
-        <v>1.561149661614008</v>
+        <v>1.573849195370482</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.419692398200016</v>
+        <v>-5.433779716057712</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.159376637556541</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.12884191278056</v>
+        <v>-24.14426464552811</v>
       </c>
       <c r="F19" t="n">
-        <v>1.811893445638745</v>
+        <v>1.824776271635004</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.168005968370673</v>
+        <v>-5.181425578783442</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.482224108570138</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.88043174201553</v>
+        <v>-24.89586756706592</v>
       </c>
       <c r="F20" t="n">
-        <v>2.036086039500463</v>
+        <v>2.048942680891038</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.928010964978993</v>
+        <v>-4.943067113246978</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.850359793657237</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.45956975821928</v>
+        <v>-25.47507104478388</v>
       </c>
       <c r="F21" t="n">
-        <v>2.392353784429512</v>
+        <v>2.404712918312102</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.67556518158483</v>
+        <v>-4.689613222534003</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.263626455720086</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.0359060216149</v>
+        <v>-26.05153823120792</v>
       </c>
       <c r="F22" t="n">
-        <v>2.683840814897702</v>
+        <v>2.695100195341586</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.384261443356426</v>
+        <v>-4.400181683611964</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.729051969646991</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.53795655868657</v>
+        <v>-26.55288178392614</v>
       </c>
       <c r="F23" t="n">
-        <v>2.880696680425895</v>
+        <v>2.891772768629995</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.232718037963447</v>
+        <v>-4.248022939985424</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.251315220249927</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.75316783279887</v>
+        <v>-26.76827635027822</v>
       </c>
       <c r="F24" t="n">
-        <v>3.007037402848551</v>
+        <v>3.018218229475385</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.053078550672123</v>
+        <v>-4.068619114145252</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.826949181397636</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.05842796585655</v>
+        <v>-27.07303897582792</v>
       </c>
       <c r="F25" t="n">
-        <v>3.313711504613143</v>
+        <v>3.325023254268394</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.799834136804616</v>
+        <v>-3.814851008164076</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.4533978899621867</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.02652202383127</v>
+        <v>-27.0410282953799</v>
       </c>
       <c r="F26" t="n">
-        <v>3.391244122041845</v>
+        <v>3.403603255924434</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.758868321212855</v>
+        <v>-3.774461253897351</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.1290575858531857</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.9570018957417</v>
+        <v>-26.97102375208519</v>
       </c>
       <c r="F27" t="n">
-        <v>3.403812732769901</v>
+        <v>3.415412513087671</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.704640002842425</v>
+        <v>-3.71855712076318</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.1529917656682022</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.86988571263285</v>
+        <v>-26.8843657995758</v>
       </c>
       <c r="F28" t="n">
-        <v>3.469300431584215</v>
+        <v>3.47980045846328</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.705098233441886</v>
+        <v>-3.717941782529619</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.3997594774492771</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.72706178093247</v>
+        <v>-26.74063849897933</v>
       </c>
       <c r="F29" t="n">
-        <v>3.480690735056517</v>
+        <v>3.490902731273063</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.632134829704947</v>
+        <v>-3.64437613286196</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6135449628063766</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.61216373119348</v>
+        <v>-26.62534768015509</v>
       </c>
       <c r="F30" t="n">
-        <v>3.455082190698101</v>
+        <v>3.46440391032141</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.591797444649588</v>
+        <v>-3.603960193989552</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7984171655546637</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.20898626518252</v>
+        <v>-26.22164652203047</v>
       </c>
       <c r="F31" t="n">
-        <v>3.350396137175659</v>
+        <v>3.359194164685299</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.782277358693861</v>
+        <v>-3.793183246961019</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.957724978127812</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.877986664738</v>
+        <v>-25.89005776795808</v>
       </c>
       <c r="F32" t="n">
-        <v>3.303316216156812</v>
+        <v>3.311590551552783</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.872417863759145</v>
+        <v>-3.883179736695044</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.088611271282411</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.45901988149993</v>
+        <v>-25.47109098472</v>
       </c>
       <c r="F33" t="n">
-        <v>3.183207429886817</v>
+        <v>3.191350842254371</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.026998683411405</v>
+        <v>-4.034984988144858</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.188419218451833</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.00365649636185</v>
+        <v>-25.01532173819383</v>
       </c>
       <c r="F34" t="n">
-        <v>3.103632413214806</v>
+        <v>3.111121210440273</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.948313943332631</v>
+        <v>-3.955004110084753</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.25396588459161</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.64943115067612</v>
+        <v>-24.66042868506316</v>
       </c>
       <c r="F35" t="n">
-        <v>2.849458445845536</v>
+        <v>2.857130535310788</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.048574798494569</v>
+        <v>-4.054086657990936</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.280201145738381</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.95477974649981</v>
+        <v>-23.96585583470391</v>
       </c>
       <c r="F36" t="n">
-        <v>2.730711259071081</v>
+        <v>2.737126487463527</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.365591819504124</v>
+        <v>-4.37048834076693</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.264918806496231</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.52547004401677</v>
+        <v>-23.53591770168447</v>
       </c>
       <c r="F37" t="n">
-        <v>2.575253255128426</v>
+        <v>2.581982698789073</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.444551497942574</v>
+        <v>-4.448374450372358</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.206953852446421</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.15230013611905</v>
+        <v>-23.16221100937024</v>
       </c>
       <c r="F38" t="n">
-        <v>2.517961337893032</v>
+        <v>2.524507489313895</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.550533689446347</v>
+        <v>-4.554827964778433</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.106559957186154</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.676172358674</v>
+        <v>-22.68578210895983</v>
       </c>
       <c r="F39" t="n">
-        <v>2.477794152774617</v>
+        <v>2.48449741182958</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.484980529117824</v>
+        <v>-4.488476173976565</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9666708113986665</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.31743016850787</v>
+        <v>-22.32673879582833</v>
       </c>
       <c r="F40" t="n">
-        <v>2.458888867471164</v>
+        <v>2.466953726021667</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.540112216384333</v>
+        <v>-4.542730676952678</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7903943845019942</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.80227423629163</v>
+        <v>-21.81138647906947</v>
       </c>
       <c r="F41" t="n">
-        <v>2.544512528056053</v>
+        <v>2.551687110013319</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.47144308797948</v>
+        <v>-4.474022271639299</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5810712967087172</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.18571841856622</v>
+        <v>-21.19407130777924</v>
       </c>
       <c r="F42" t="n">
-        <v>2.670591404421875</v>
+        <v>2.677399401899572</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.482309699338113</v>
+        <v>-4.4850983598434</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.343673619211361</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.5342977983733</v>
+        <v>-20.54250667225506</v>
       </c>
       <c r="F43" t="n">
-        <v>2.78122136343446</v>
+        <v>2.788107914729208</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.475331501923472</v>
+        <v>-4.478761685268005</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.08270499308891804</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.28147233819673</v>
+        <v>-20.28922298147903</v>
       </c>
       <c r="F44" t="n">
-        <v>2.732360889229138</v>
+        <v>2.738697563804534</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.559632839921346</v>
+        <v>-4.562644069574944</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1987597457344442</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.84418942328308</v>
+        <v>-19.85132472833182</v>
       </c>
       <c r="F45" t="n">
-        <v>2.80845335334525</v>
+        <v>2.815444643062732</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.543869707299908</v>
+        <v>-4.546435798656886</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.4958074357511225</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.49115547715594</v>
+        <v>-19.49860499747288</v>
       </c>
       <c r="F46" t="n">
-        <v>2.850086876381939</v>
+        <v>2.85692105846532</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.649825714197998</v>
+        <v>-4.650729083094077</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.8032273301360612</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.01091671661858</v>
+        <v>-19.01756760646218</v>
       </c>
       <c r="F47" t="n">
-        <v>2.883053294937405</v>
+        <v>2.889547077146902</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962338983029999</v>
+        <v>-4.962718659812409</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.119285022457816</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.55531767002935</v>
+        <v>-18.56171980611896</v>
       </c>
       <c r="F48" t="n">
-        <v>2.849694107296687</v>
+        <v>2.855716566603881</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.088967736115174</v>
+        <v>-5.089203397566324</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.439984258515407</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.08334015258513</v>
+        <v>-18.09081585750776</v>
       </c>
       <c r="F49" t="n">
-        <v>2.878759019605319</v>
+        <v>2.88467674048978</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.340850550487141</v>
+        <v>-5.341544442537752</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.759592757424635</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.59659451753544</v>
+        <v>-17.60371673028134</v>
       </c>
       <c r="F50" t="n">
-        <v>2.92882398567208</v>
+        <v>2.935893829206612</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.43550790003282</v>
+        <v>-5.433936823691814</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.077450044567395</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.9059493580287</v>
+        <v>-16.91339887834565</v>
       </c>
       <c r="F51" t="n">
-        <v>2.905650609642225</v>
+        <v>2.913217960684742</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.652499727331588</v>
+        <v>-5.650876281779214</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.390253119286617</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.53044902022516</v>
+        <v>-16.53768906369664</v>
       </c>
       <c r="F52" t="n">
-        <v>2.787688961038273</v>
+        <v>2.794601696938704</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793464552028452</v>
+        <v>-5.793752582690971</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.691103489340235</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.10616676203334</v>
+        <v>-16.1138388514986</v>
       </c>
       <c r="F53" t="n">
-        <v>2.857025796888054</v>
+        <v>2.863493394491867</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852903606929889</v>
+        <v>-5.852811960809997</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.979257760794631</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.82897652626832</v>
+        <v>-15.83766981535523</v>
       </c>
       <c r="F54" t="n">
-        <v>2.614687271287704</v>
+        <v>2.620866838228999</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.088538873475275</v>
+        <v>-6.087700966093404</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.251589377266269</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.49051431320402</v>
+        <v>-15.49982294052448</v>
       </c>
       <c r="F55" t="n">
-        <v>2.45286640816397</v>
+        <v>2.459203082739366</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.304103639764294</v>
+        <v>-6.302336178880662</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.501368258710364</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.08220466447911</v>
+        <v>-15.09250830681554</v>
       </c>
       <c r="F56" t="n">
-        <v>2.397878736228721</v>
+        <v>2.4042415954098</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.498498152358243</v>
+        <v>-6.498210121695726</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.726575016925179</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.54219954146927</v>
+        <v>-14.55242462998866</v>
       </c>
       <c r="F57" t="n">
-        <v>2.35213423009973</v>
+        <v>2.359544473508147</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.765725145660714</v>
+        <v>-6.765306191969779</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.926186365957876</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.29112844987349</v>
+        <v>-14.30196887662644</v>
       </c>
       <c r="F58" t="n">
-        <v>2.173450480915852</v>
+        <v>2.181122570381104</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.722101592592082</v>
+        <v>-6.72193139265514</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.096541834039763</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.91464618935682</v>
+        <v>-13.9259055698007</v>
       </c>
       <c r="F59" t="n">
-        <v>2.22220621669844</v>
+        <v>2.230873321179663</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.859740972367149</v>
+        <v>-6.85921728025348</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.237626514273932</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.80059913930254</v>
+        <v>-13.8126047810084</v>
       </c>
       <c r="F60" t="n">
-        <v>2.041584806693987</v>
+        <v>2.050225726569527</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821328155829525</v>
+        <v>-6.821354340435208</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.353571189139211</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.47261076851162</v>
+        <v>-13.48439384106917</v>
       </c>
       <c r="F61" t="n">
-        <v>1.919747836448885</v>
+        <v>1.928493494747158</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.149395080437497</v>
+        <v>-7.150429372361993</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.446024343477917</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.16900026561199</v>
+        <v>-13.18202710693951</v>
       </c>
       <c r="F62" t="n">
-        <v>1.839884789114356</v>
+        <v>1.849075585709247</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.193293571865804</v>
+        <v>-7.193084095020336</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.516783147941284</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.84140466390632</v>
+        <v>-12.85453624365657</v>
       </c>
       <c r="F63" t="n">
-        <v>1.771569152886229</v>
+        <v>1.780707580269754</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.311661081857849</v>
+        <v>-7.31249898923972</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.572269067060965</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.596251293195</v>
+        <v>-12.61012913420723</v>
       </c>
       <c r="F64" t="n">
-        <v>1.655073842200551</v>
+        <v>1.66455266945796</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.500164058173022</v>
+        <v>-7.498815550980323</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.616039497822235</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.3837370334681</v>
+        <v>-12.39790290514285</v>
       </c>
       <c r="F65" t="n">
-        <v>1.582882884331273</v>
+        <v>1.590188389316956</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730091080679415</v>
+        <v>-7.730248188313515</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.648174994533108</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.14711984420959</v>
+        <v>-12.16156065424401</v>
       </c>
       <c r="F66" t="n">
-        <v>1.51383407914401</v>
+        <v>1.52119195334106</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.853171819694482</v>
+        <v>-7.852320820009769</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.67321992777621</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.96617112663409</v>
+        <v>-11.98074285969693</v>
       </c>
       <c r="F67" t="n">
-        <v>1.558216985777461</v>
+        <v>1.568481351205374</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.814889926185274</v>
+        <v>-7.815518356721677</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.693934584784158</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.87466902207327</v>
+        <v>-11.88977753955262</v>
       </c>
       <c r="F68" t="n">
-        <v>1.423916143227035</v>
+        <v>1.432190478623006</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.830797074137972</v>
+        <v>-7.829946074453259</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.706929366225201</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.72561315422022</v>
+        <v>-11.74083950242514</v>
       </c>
       <c r="F69" t="n">
-        <v>1.307839786232292</v>
+        <v>1.318365997717039</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.903406985698184</v>
+        <v>-7.902555986013472</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.713169362866268</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.62323134599792</v>
+        <v>-11.63946580152166</v>
       </c>
       <c r="F70" t="n">
-        <v>1.356150383718261</v>
+        <v>1.366048164666606</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.845866314708799</v>
+        <v>-7.844583269030309</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.714626027509868</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.35661969092901</v>
+        <v>-11.37235663894477</v>
       </c>
       <c r="F71" t="n">
-        <v>1.294341622002472</v>
+        <v>1.304448879796285</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.705241889885818</v>
+        <v>-7.702034275689596</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.705935257999015</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.30082029621757</v>
+        <v>-11.31640013659923</v>
       </c>
       <c r="F72" t="n">
-        <v>1.34719524857452</v>
+        <v>1.356726445043297</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.706577304775674</v>
+        <v>-7.704194505658481</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.685695960480002</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.28091999589815</v>
+        <v>-11.29272925306139</v>
       </c>
       <c r="F73" t="n">
-        <v>1.320408396960349</v>
+        <v>1.329991962640492</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.593760931188521</v>
+        <v>-7.589414286645068</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.65668961600823</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.47632261581091</v>
+        <v>-11.4882104267912</v>
       </c>
       <c r="F74" t="n">
-        <v>1.368038194698548</v>
+        <v>1.37730754511049</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.47815589709608</v>
+        <v>-7.474634067631656</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.613954101342002</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.60482356820245</v>
+        <v>-11.61676374839411</v>
       </c>
       <c r="F75" t="n">
-        <v>1.299879666104522</v>
+        <v>1.309149016516464</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.346552068931049</v>
+        <v>-7.343789593031445</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.555793188138167</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.94414987325431</v>
+        <v>-11.95506885382431</v>
       </c>
       <c r="F76" t="n">
-        <v>1.326745071535744</v>
+        <v>1.33543836062265</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.154357063214511</v>
+        <v>-7.149617649585806</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.486752537591188</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.5575635382977</v>
+        <v>-12.56799810366256</v>
       </c>
       <c r="F77" t="n">
-        <v>1.300233158281249</v>
+        <v>1.309175201122148</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.980543650687755</v>
+        <v>-6.977296759583007</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.406149735428818</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.08807674174728</v>
+        <v>-13.09801379960415</v>
       </c>
       <c r="F78" t="n">
-        <v>1.327713901946032</v>
+        <v>1.336930883146607</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.840194164224452</v>
+        <v>-6.838937303151646</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.314747689861511</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.58373823503219</v>
+        <v>-13.59359673907201</v>
       </c>
       <c r="F79" t="n">
-        <v>1.387729018172504</v>
+        <v>1.396762707133295</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.663186229804316</v>
+        <v>-6.662963660656006</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.218955852649244</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.14215113583749</v>
+        <v>-14.15187871684889</v>
       </c>
       <c r="F80" t="n">
-        <v>1.376836222208188</v>
+        <v>1.38458686549049</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.398315851013355</v>
+        <v>-6.396980436123499</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.119973754672754</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.92677284514213</v>
+        <v>-14.93634331851944</v>
       </c>
       <c r="F81" t="n">
-        <v>1.438474783987034</v>
+        <v>1.446696750171639</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.281480140453792</v>
+        <v>-6.280890986825915</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.016774091967919</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.68154410396764</v>
+        <v>-15.6907872697739</v>
       </c>
       <c r="F82" t="n">
-        <v>1.473169386517609</v>
+        <v>1.480605814531709</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.196772941067825</v>
+        <v>-6.195987402897321</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.912713494696537</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.55007438218491</v>
+        <v>-16.5594222864139</v>
       </c>
       <c r="F83" t="n">
-        <v>1.428838849095524</v>
+        <v>1.436589492377826</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.937650083224382</v>
+        <v>-5.936393222151576</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.807480199557254</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.62114258536367</v>
+        <v>-17.63026792044436</v>
       </c>
       <c r="F84" t="n">
-        <v>1.514724355737247</v>
+        <v>1.521532353214945</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747877153533563</v>
+        <v>-5.74762839977957</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.697126612079993</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.43346760748141</v>
+        <v>-18.44242274262515</v>
       </c>
       <c r="F85" t="n">
-        <v>1.505455005325305</v>
+        <v>1.512734325705305</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.538806169454039</v>
+        <v>-5.539473876898967</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.582308654893256</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.51961814353385</v>
+        <v>-19.52935881684809</v>
       </c>
       <c r="F86" t="n">
-        <v>1.501291653021636</v>
+        <v>1.508440050373219</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242579725357145</v>
+        <v>-5.242710648385562</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.463833476269201</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.57882472033801</v>
+        <v>-20.58865703977215</v>
       </c>
       <c r="F87" t="n">
-        <v>1.528733119777894</v>
+        <v>1.533289241166815</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.972537886943703</v>
+        <v>-4.971503595019207</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.338701523862714</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.94160252313328</v>
+        <v>-21.95115990420774</v>
       </c>
       <c r="F88" t="n">
-        <v>1.579950208494726</v>
+        <v>1.585056206603</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659880602780443</v>
+        <v>-4.659906787386126</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.206682169294878</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.41031014822095</v>
+        <v>-23.41875468355386</v>
       </c>
       <c r="F89" t="n">
-        <v>1.371704039494231</v>
+        <v>1.377778868012792</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.321248189779198</v>
+        <v>-4.320672128454162</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.069167781450067</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.89941558113603</v>
+        <v>-24.90759827041211</v>
       </c>
       <c r="F90" t="n">
-        <v>1.224415632524813</v>
+        <v>1.229613276752979</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.126185969740321</v>
+        <v>-4.126670384945466</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.922999241373906</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.55364113749096</v>
+        <v>-26.56169290373862</v>
       </c>
       <c r="F91" t="n">
-        <v>1.060225062586727</v>
+        <v>1.064912107004065</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.0885586913732</v>
+        <v>-4.088231383802158</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.764722197917833</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.25697592180521</v>
+        <v>-28.26361371934596</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9763426782797877</v>
+        <v>0.98053221518914</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.843156566907887</v>
+        <v>-3.842515044068643</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.593988881583161</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.15118338924897</v>
+        <v>-30.15724512546469</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8536416160471311</v>
+        <v>0.8576216761110157</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.886099320228749</v>
+        <v>-3.884776997641735</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.405895497666442</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.29392204153723</v>
+        <v>-32.29914587037108</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7628726804454442</v>
+        <v>0.7665647098468109</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.92448595216069</v>
+        <v>-3.922600660551481</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.19433433371006</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.38715869678092</v>
+        <v>-34.39157080283858</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3516434481868284</v>
+        <v>0.3554140314052455</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.928727858281409</v>
+        <v>-3.926593812918207</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.957332449810987</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.40655476399727</v>
+        <v>-36.41033843951853</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07002801406130066</v>
+        <v>0.07454485854169615</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.10455748544579</v>
+        <v>-4.102907855287732</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.694575387456802</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54163441912312</v>
+        <v>-38.5448289410165</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2559703266976784</v>
+        <v>-0.2521604665707362</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.192734145084815</v>
+        <v>-4.189906207671002</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.400901156867552</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.88909741094744</v>
+        <v>-40.89068157959129</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5201729980437105</v>
+        <v>-0.5156692458661567</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.399435422349987</v>
+        <v>-4.396528931119123</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.087156770217253</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31410611250332</v>
+        <v>-43.31510112751928</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4367357520333903</v>
+        <v>-0.4322843690672034</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.71879596556821</v>
+        <v>-4.716007305062923</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.7515922472241473</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.7997714531249</v>
+        <v>-45.79971908391353</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.578931253197377</v>
+        <v>-0.5761033157835642</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.96455158221025</v>
+        <v>-4.960951198928775</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4157461579241489</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.2028898243294</v>
+        <v>-48.20278508590667</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6070927966099299</v>
+        <v>-0.6030865519403616</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.323660356855955</v>
+        <v>-5.319012589347142</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06819090594415012</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.4961244977833</v>
+        <v>-50.4950247443446</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7306710431329823</v>
+        <v>-0.7269659214287737</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.641881869726949</v>
+        <v>-5.637757794331804</v>
       </c>
     </row>
   </sheetData>
